--- a/pred_ohlcv/54_21/2019-10-19 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 ETH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>105.3326951243296</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>107.5454951243296</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>103.1312931750119</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>70.57949317501186</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>70.75479317501186</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>184.3066931750118</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>153.9666931750118</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>158.2288931750118</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>309.7934931750119</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>309.7934931750119</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>245.1587613368841</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>239.7803613368841</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>239.7803613368841</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>239.7803613368841</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>264.9466613368841</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>28.06054801148973</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>30.06054801148973</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>30.06054801148973</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>31.42054801148973</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>30.25204801148973</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>30.25204801148973</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>35.15574801148973</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>166.6067480114897</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>2845.749257449579</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>2890.273457449579</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>2851.230057449579</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>3597.035069345501</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>3581.991469345501</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>3581.991469345501</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>3581.991469345501</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>3553.697467470812</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>3562.862167470812</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>3546.421467470811</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>3546.347367470812</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>3546.347367470812</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>3410.308067470812</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>3744.842267132157</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>3814.372867132157</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>3797.228667132157</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>3787.532467132157</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>3826.963267132157</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>3652.956367132157</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>3743.125867132157</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>3722.792967132157</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>3722.792967132157</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>3729.706667132157</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>3655.589667132157</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>3647.154967132157</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>3647.154967132157</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>3646.154967132157</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>1920.395127430615</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>2151.036295097605</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>2154.106995097605</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>2154.106995097605</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>2154.106995097605</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 ETH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>105.3326951243296</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>107.5454951243296</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>103.1312931750119</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>70.57949317501186</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>70.75479317501186</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>184.3066931750118</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>153.9666931750118</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>158.2288931750118</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>309.7934931750119</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>309.7934931750119</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>309.7934931750119</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -860,7 +860,7 @@
         <v>263.1424931750119</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>245.1587613368841</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>245.1587613368841</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>264.9466613368841</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>28.06054801148973</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>30.06054801148973</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>30.06054801148973</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>31.42054801148973</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>30.25204801148973</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>30.25204801148973</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>35.15574801148973</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>166.6067480114897</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>2872.834257449579</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>2845.749257449579</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>2894.874457449579</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>2890.273457449579</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>2890.273457449579</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>2851.230057449579</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>2683.434857449579</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>2696.955957449578</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>2680.719857449578</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>2460.749781047256</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>2394.295281047256</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>2389.304081047256</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>2606.087043717615</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>3597.035069345501</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>3581.991469345501</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>3581.991469345501</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>3581.991469345501</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>3553.697467470812</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>3546.347367470812</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>3380.683467470812</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>3378.165767470812</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>3455.743367132157</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>3744.842267132157</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>3814.372867132157</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>3797.228667132157</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>3787.532467132157</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>3826.963267132157</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>3652.956367132157</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>3743.125867132157</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>3722.792967132157</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>3722.792967132157</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>3729.706667132157</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>3655.589667132157</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>3647.154967132157</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>3647.154967132157</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>3646.154967132157</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>3705.157367132157</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>3702.221867132157</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>3755.038364906709</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>3601.503064906709</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>3558.451115706515</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>1920.395127430615</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>2151.036295097605</v>
       </c>
       <c r="H1016">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>2154.106995097605</v>
       </c>
       <c r="H1017">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>2154.106995097605</v>
       </c>
       <c r="H1018">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>2154.106995097605</v>
       </c>
       <c r="H1019">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
